--- a/Traduction.xlsx
+++ b/Traduction.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Partage\Projet\PHP_WEB\Bruno_Antoine_Pierre_Clement_Bryan\GestionAnnonces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exercices\GestionAnnonces\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD20672-562B-41BD-9BD5-64FE1BDADD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>Voiture</t>
   </si>
@@ -153,12 +163,87 @@
   </si>
   <si>
     <t>return</t>
+  </si>
+  <si>
+    <t>Mes Messages</t>
+  </si>
+  <si>
+    <t>My Messages</t>
+  </si>
+  <si>
+    <t>Liste utilisateurs</t>
+  </si>
+  <si>
+    <t>Liste des Utilisateurs</t>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Liste Annonces</t>
+  </si>
+  <si>
+    <t>Liste des Annonces</t>
+  </si>
+  <si>
+    <t>Announcements List</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Consulter</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Publiée le</t>
+  </si>
+  <si>
+    <t>publiée le</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Envoyé par</t>
+  </si>
+  <si>
+    <t>Send by</t>
+  </si>
+  <si>
+    <t>Aucun message à afficher</t>
+  </si>
+  <si>
+    <t>No message to display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E37" si="0">IF(A3="","","insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("""&amp;A3&amp;""","""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;D3&amp;""");")</f>
+        <f t="shared" ref="E3:E59" si="0">IF(A3="","","insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("""&amp;A3&amp;""","""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;D3&amp;""");")</f>
         <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("2","Voiture","EN","Car");</v>
       </c>
     </row>
@@ -1154,6 +1239,402 @@
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("36","Retour","EN","return");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("37","Mes Messages","FR","Mes Messages");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("38","Mes Messages","EN","My Messages");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("39","Liste utilisateurs","FR","Liste des Utilisateurs");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("40","Liste utilisateurs","EN","User List");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("41","Liste Annonces","FR","Liste des Annonces");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("42","Liste Annonces","EN","Announcements List");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("43","Modifier","FR","Modifier");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("44","Modifier","EN","Modify");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("45","Supprimer","FR","Supprimer");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("46","Supprimer","EN","Delete");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("47","Consulter","FR","Consulter");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("48","Consulter","EN","View");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("49","publiée le","FR","Publiée le");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("50","publiée le","EN","Published");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("51","Par","FR","Par");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("52","Par","EN","By");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("53","Statut","FR","Statut");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("54","Statut","EN","Status");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("55","Envoyé par","FR","Envoyé par");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("56","Envoyé par","EN","Send by");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("57","Aucun message à afficher","FR","Aucun message à afficher");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into langue (idLangue,nomLangue,codeLangue,texteLangue) Values ("58","Aucun message à afficher","EN","No message to display");</v>
       </c>
     </row>
   </sheetData>
